--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5498489425981873</v>
+        <v>0.5218978102189781</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945355191256831</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7081712062256809</v>
+        <v>0.6258205689277899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4654654654654655</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1380396692291828</v>
+        <v>0.07789332718070439</v>
       </c>
       <c r="J2" t="n">
-        <v>1841.08473754667</v>
+        <v>1063.247221799251</v>
       </c>
       <c r="K2" t="n">
-        <v>4755459.334536045</v>
+        <v>1787877.154234723</v>
       </c>
       <c r="L2" t="n">
-        <v>2180.701569343234</v>
+        <v>1337.115235959386</v>
       </c>
       <c r="M2" t="n">
-        <v>0.115827566738139</v>
+        <v>0.6675838057634798</v>
       </c>
     </row>
   </sheetData>
